--- a/RPA_projects/SAP_Macro/SBins.xlsx
+++ b/RPA_projects/SAP_Macro/SBins.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zinus_user\Desktop\SoftwareEngineering\RPA_projects\SAP_Macro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zinus_user\Desktop\Sap_macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,18 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>RB01-02-1L</t>
-  </si>
-  <si>
-    <t>RB01-02-1R</t>
-  </si>
-  <si>
-    <t>RB01-02-2L</t>
-  </si>
-  <si>
-    <t>RB01-02-2R</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>RB05-33-2R</t>
+  </si>
+  <si>
+    <t>RB05-33-3L</t>
+  </si>
+  <si>
+    <t>RB05-33-4L</t>
+  </si>
+  <si>
+    <t>RB05-33-4R</t>
+  </si>
+  <si>
+    <t>RB05-34-1L</t>
+  </si>
+  <si>
+    <t>RB05-34-1R</t>
+  </si>
+  <si>
+    <t>RB05-33-3Rd</t>
   </si>
 </sst>
 </file>
@@ -353,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,12 +385,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
